--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_15.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_15.xlsx
@@ -483,35 +483,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_145</t>
+          <t>isophonics_41</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>isophonics_288</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.4740740740740741</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>[['G', 'C', 'F']]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'G']]</t>
+          <t>[['F#', 'B', 'E']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(143.58, 149.12)]</t>
+          <t>[(56.279931, 60.633673)]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(1.15, 6.536)]</t>
+          <t>[(29.008095, 34.615714)]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -520,154 +520,158 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_148</t>
+          <t>schubert-winterreise_163</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>schubert-winterreise_145</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(36.32, 51.92)]</t>
+          <t>[(111.92, 115.66)]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(17.56, 47.24)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[(143.58, 149.12)]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>jaah_0</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1348837209302326</v>
+        <v>0.3189655172413793</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['Ab', 'Eb:7', 'Ab', 'Ab']]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>[['E:maj', 'B:7/A', 'E:maj/G#', 'E:maj/B']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(12.26, 25.04), (49.4, 56.76), (1.44, 6.66)]</t>
+          <t>[(63.01, 68.27)]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(36.28, 38.0), (36.14, 37.58), (9.62, 14.18)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[(207.92, 219.14)]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>schubert-winterreise_163</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_31</t>
+          <t>schubert-winterreise_2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1916666666666667</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(251.5, 255.38)]</t>
+          <t>[(55.4, 65.22)]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(7.9, 16.08)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+          <t>[(20.56, 26.4)]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_15</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>schubert-winterreise_214</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.203125</v>
+        <v>0.1916666666666667</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C'], ['D:7', 'G:7', 'C']]</t>
+          <t>[['A#/F', 'F:7', 'A#']]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A'], ['E:7/G#', 'A:7/G', 'D:maj/F#']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(12.03, 14.36), (22.89, 24.46)]</t>
+          <t>[(271.22, 275.78)]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(224.58, 232.16), (56.92, 63.56)]</t>
+          <t>[(9.2, 20.1)]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
@@ -676,72 +680,76 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>schubert-winterreise_149</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
+          <t>schubert-winterreise_21</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.3452380952380952</v>
+        <v>0.150268336314848</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7/A', 'E:maj/G#', 'E:maj/B']]</t>
+          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'F:maj']]</t>
+          <t>[['F#:maj', 'C#:7/F', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(215.06, 226.54)]</t>
+          <t>[(32.44, 34.8)]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(72.64, 83.38)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[(38.58, 43.3)]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
+          <t>isophonics_212</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_86</t>
+          <t>jaah_55</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.2244208494208494</v>
+        <v>0.09545454545454546</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>[['G', 'D', 'D']]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>[['F', 'C', 'C']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(63.24, 64.62)]</t>
+          <t>[(57.636679, 62.11813)]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(14.82, 16.26)]</t>
+          <t>[(37.61, 38.9)]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -750,35 +758,35 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_136</t>
+          <t>isophonics_124</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_273</t>
+          <t>isophonics_167</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.1168831168831169</v>
+        <v>0.162280701754386</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>[['F', 'Bb', 'F']]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C']]</t>
+          <t>[['G/5', 'C/9', 'G']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(2.5, 26.2)]</t>
+          <t>[(15.124263, 20.058503)]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(20.801, 27.165)]</t>
+          <t>[(0.727609, 8.204625)]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
@@ -787,195 +795,195 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_62</t>
+          <t>isophonics_1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_78</t>
+          <t>isophonics_140</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.1697792869269949</v>
+        <v>0.202991452991453</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['C#:min', 'A', 'B', 'E']]</t>
+          <t>[['Eb', 'Ab/5', 'Eb', 'Ab/5', 'Eb']]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['F#:min', 'D', 'E', 'A']]</t>
+          <t>[['G', 'C', 'G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(19.476303, 29.878843)]</t>
+          <t>[(17.016, 25.693)]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(15.668231, 23.783605)]</t>
+          <t>[(0.465952, 8.50033)]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
+          <t>schubert-winterreise_34</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_54</t>
+          <t>schubert-winterreise_154</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.2373626373626374</v>
+        <v>0.1613636363636363</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>[['C/G', 'G:7', 'C'], ['C', 'C/G', 'G:7']]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj'], ['A:maj', 'A:maj', 'E:7/G#']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(64.3, 65.72)]</t>
+          <t>[(243.44, 246.98), (242.22, 244.56)]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(36.82, 47.63)]</t>
+          <t>[(21.78, 25.3), (10.3, 17.72)]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_235</t>
+          <t>schubert-winterreise_78</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>schubert-winterreise_21</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.1833333333333333</v>
+        <v>0.3311965811965812</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb', 'Eb']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj'], ['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G#:maj', 'D#:maj', 'G#:maj']]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj'], ['D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(51.839081, 63.042709)]</t>
+          <t>[(6.22, 14.32), (7.4, 16.48)]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(131.46, 133.42)]</t>
+          <t>[(2.02, 8.58), (2.66, 10.62)]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
+          <t>schubert-winterreise_67</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.1963636363636364</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj']]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D'], ['B:min', 'F#:maj/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C/7']]</t>
+          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(5.88, 11.46)]</t>
+          <t>[(0.3, 2.82), (16.3, 19.52)]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(12.851927, 16.810929)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[(9.62, 14.18), (1.88, 6.56)]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_170</t>
+          <t>jaah_43</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_22</t>
+          <t>isophonics_21</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.08269794721407625</v>
+        <v>0.134575569358178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['E:7/5', 'E:7', 'A:7', 'A:7/5'], ['D', 'D/5', 'D', 'D:maj(*1)/#1']]</t>
+          <t>[['Bb:7', 'Eb', 'Eb', 'Ab']]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C:7', 'C:7', 'F:7', 'F:7'], ['Bb', 'Bb', 'Bb', 'Bb']]</t>
+          <t>[['G:7', 'C', 'C/b7', 'F']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(41.627674, 46.153479), (37.077029, 40.734172)]</t>
+          <t>[(93.64, 102.97)]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(23.78, 27.65), (66.74, 74.43)]</t>
+          <t>[(34.041, 40.124)]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
@@ -984,80 +992,72 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_205</t>
+          <t>schubert-winterreise_27</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>jaah_21</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0572717806317251</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['A:min', 'A:min/b7', 'A:min/6']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D:min', 'D:min', 'D:min/A']]</t>
+          <t>[['Ab', 'Eb:7', 'Ab']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(0.06, 6.451609)]</t>
+          <t>[(64.3, 65.72)]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(31.52, 47.9)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[(46.75, 47.53)]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_217</t>
+          <t>schubert-winterreise_166</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_64</t>
+          <t>schubert-winterreise_151</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.2426470588235294</v>
+        <v>0.3833333333333333</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G', 'D']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'E']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(6.415079, 16.608639)]</t>
+          <t>[(67.14, 70.82)]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(74.879, 87.795)]</t>
+          <t>[(117.54, 121.8)]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
@@ -1066,43 +1066,43 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
+          <t>isophonics_227</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
+          <t>schubert-winterreise_79</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.2077922077922078</v>
+        <v>0.13125</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj'], ['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>[['E:7', 'A:min', 'A:min/b3'], ['E:7', 'A:min', 'D:min']]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj', 'D#:maj'], ['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>[['E:7', 'A:min', 'A:min'], ['E:7', 'A:min', 'D:min']]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[(5.78, 11.38), (16.04, 18.72)]</t>
+          <t>[(5.67204, 8.841564), (20.045192, 25.141972)]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[(65.78, 74.48), (65.28, 71.0)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>[(10.24, 21.02), (53.28, 62.86)]</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_15.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,626 +488,656 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_41</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_288</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.06944444444444445</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>jaah_80</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1431818181818182</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F#', 'B', 'E']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(56.279931, 60.633673)]</t>
+          <t>[['C:7', 'F', 'F']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(29.008095, 34.615714)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>[('0:00:07.020000', '0:00:13.540000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:21.410000', '0:00:24.830000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_145</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_12</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(111.92, 115.66)]</t>
+          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(143.58, 149.12)]</t>
+          <t>[('0:01:34.780000', '0:01:54.140000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:30.060000', '0:00:43.780000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_0</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.3189655172413793</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['Ab', 'Eb:7', 'Ab', 'Ab']]</t>
-        </is>
+          <t>isophonics_128</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_194</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1194879089615932</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7/A', 'E:maj/G#', 'E:maj/B']]</t>
+          <t>[['F', 'C', 'F'], ['C', 'F', 'C']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(63.01, 68.27)]</t>
+          <t>[['G', 'D', 'G'], ['D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(207.92, 219.14)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:12.376258', '0:00:19.597664'), ('0:00:10.634761', '0:00:15.986961')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:02:22.379117', '0:02:27.510727'), ('0:02:24.085784', '0:02:29.240614')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>isophonics_138</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_116</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1230195712954334</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['G', 'C:min', 'G:7', 'C:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(55.4, 65.22)]</t>
+          <t>[['D:maj/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(20.56, 26.4)]</t>
+          <t>[('0:00:09.898503', '0:00:16.109841')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:17.540000', '0:00:27.180000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_214</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1916666666666667</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A#/F', 'F:7', 'A#']]</t>
-        </is>
+          <t>isophonics_200</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_232</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1980676328502415</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['A', 'D', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(271.22, 275.78)]</t>
+          <t>[['C', 'F', 'G', 'A']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(9.2, 20.1)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:57.230509', '0:01:11.429511')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:23.725555', '0:00:34.801473')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_21</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.150268336314848</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>jaah_54</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_51</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.04807692307692308</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'C#:7/F', 'F#:maj']]</t>
+          <t>[['Eb', 'Bb:7', 'Eb'], ['Eb', 'Eb', 'Bb:7']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(32.44, 34.8)]</t>
+          <t>[['C/G', 'G:7', 'C'], ['C', 'C/G', 'G:7']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(38.58, 43.3)]</t>
+          <t>[('0:00:36.820000', '0:00:47.630000'), ('0:00:22.370000', '0:00:33.310000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:04:14.260000', '0:04:17.980000'), ('0:04:13', '0:04:15.520000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_212</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_55</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.09545454545454546</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G', 'D', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F', 'C', 'C']]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(57.636679, 62.11813)]</t>
+          <t>[['A#:maj', 'A:(3,5,b9)/A#', 'A#:maj', 'E:(3,b5,b9)/A#', 'A:maj/A#', 'A#:maj', 'A:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(37.61, 38.9)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:02:32.440000', '0:02:37.160000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:02:38.280000', '0:02:43.560000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_124</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_167</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.162280701754386</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F', 'Bb', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_88</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G/5', 'C/9', 'G']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(15.124263, 20.058503)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(0.727609, 8.204625)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+          <t>[('0:00:16.040000', '0:00:21')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:53.820000', '0:01:02.520000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_1</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.202991452991453</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Ab/5', 'Eb', 'Ab/5', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_165</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4588235294117647</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G', 'C', 'G']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(17.016, 25.693)]</t>
+          <t>[['A', 'D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(0.465952, 8.50033)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
-        </is>
-      </c>
+          <t>[('0:02:12.300000', '0:02:17.480000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:03.599751', '0:00:07.761836')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1613636363636363</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C/G', 'G:7', 'C'], ['C', 'C/G', 'G:7']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj'], ['A:maj', 'A:maj', 'E:7/G#']]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(243.44, 246.98), (242.22, 244.56)]</t>
+          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(21.78, 25.3), (10.3, 17.72)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:03:50.780000', '0:04:06.860000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:21.080000', '0:00:24.960000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_21</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3311965811965812</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj'], ['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj'], ['D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(6.22, 14.32), (7.4, 16.48)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(2.02, 8.58), (2.66, 10.62)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:55.820000', '0:01:01.680000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:01:02.580000', '0:01:09.180000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_67</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2363636363636364</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D'], ['B:min', 'F#:maj/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(0.3, 2.82), (16.3, 19.52)]</t>
+          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(9.62, 14.18), (1.88, 6.56)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:03:50.780000', '0:04:06.860000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:21.440000', '0:00:25.400000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_43</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.134575569358178</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb', 'Eb', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_195</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_192</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C/b7', 'F']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(93.64, 102.97)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(34.041, 40.124)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:15.620000', '0:00:58.080000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:17.320000', '0:01:02.460000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_21</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2571428571428571</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_56</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_35</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(64.3, 65.72)]</t>
+          <t>[['G:(3,5,b7,b9)', 'C:min', 'E:dim7'], ['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj'], ['F#:dim7', 'G:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(46.75, 47.53)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:12.400000', '0:00:16.560000'), ('0:00:21.880000', '0:00:24.860000'), ('0:00:17.200000', '0:00:18.680000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:12.720000', '0:00:17.020000'), ('0:00:22.360000', '0:00:25.240000'), ('0:00:17.760000', '0:00:19.180000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_151</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.3833333333333333</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
-        </is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7333333333333334</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(67.14, 70.82)]</t>
+          <t>[['C#', 'F#/5', 'C#', 'F#/5']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(117.54, 121.8)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:02:18.020000', '0:02:23.320000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:31.469410', '0:02:07.006105')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_227</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_79</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.13125</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min/b3'], ['E:7', 'A:min', 'D:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['E:7', 'A:min', 'D:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(5.67204, 8.841564), (20.045192, 25.141972)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(10.24, 21.02), (53.28, 62.86)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
